--- a/backend/data/user_ingredients.xlsx
+++ b/backend/data/user_ingredients.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>user_id</t>
   </si>
@@ -44,6 +44,33 @@
   </si>
   <si>
     <t>bread</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>egg</t>
   </si>
 </sst>
 </file>
@@ -421,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C26"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,6 +550,193 @@
         <v>45963.832955046295</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45996.82676960649</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45996.82679936342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45996.82682456019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45996.82685162037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45996.8269062037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45996.82694400463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45996.82698706018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45996.82705122685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45996.82707865741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45996.82710900463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45996.82713510416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45996.84235789352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45996.85749776621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45996.8575313426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45996.857547754626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45996.857569872685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45996.85764202546</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/data/user_ingredients.xlsx
+++ b/backend/data/user_ingredients.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>user_id</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>egg</t>
+  </si>
+  <si>
+    <t>potatos</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>bell peppers</t>
+  </si>
+  <si>
+    <t>tomatoes</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
   </si>
 </sst>
 </file>
@@ -448,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C36"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,6 +752,116 @@
         <v>45996.85764202546</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45998.786033310185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>45998.78607408565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45998.78610415509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45998.786123321755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45998.786139814816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45998.78618575231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45998.78621056713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45998.78630431713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45998.78637564815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45998.78648353009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
